--- a/BelgiumDataset.xlsx
+++ b/BelgiumDataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Blank Node</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,9 +422,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -430,6 +445,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -447,6 +465,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -464,6 +485,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -481,6 +505,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -498,6 +525,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -515,6 +545,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -532,6 +565,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -549,6 +585,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -566,6 +605,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -583,6 +625,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -600,6 +645,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -617,6 +665,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -634,6 +685,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -650,7 +704,10 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -667,7 +724,10 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -684,7 +744,10 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -701,7 +764,10 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -718,7 +784,10 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -735,7 +804,10 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -752,7 +824,10 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -769,7 +844,10 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -786,7 +864,10 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -803,7 +884,10 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -820,7 +904,10 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -837,7 +924,10 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -854,7 +944,10 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -871,7 +964,10 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -888,7 +984,10 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -905,7 +1004,10 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -922,7 +1024,10 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -939,7 +1044,10 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -956,7 +1064,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1084,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -990,7 +1104,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1124,10 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1144,10 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1164,10 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1184,10 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1204,10 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1224,10 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1244,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
@@ -1126,7 +1264,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
